--- a/設計書/07.試験項目表.xlsx
+++ b/設計書/07.試験項目表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A9E9D0-6635-4CF9-A4A7-07E33789F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83580E-8F09-4AD8-A0D1-D279B0128E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
   </bookViews>
   <sheets>
     <sheet name="出退勤画面" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="140">
   <si>
     <t>＃</t>
   </si>
@@ -507,7 +507,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面表示（日報未登録）</t>
+    <t>画面表示（日報登録済）</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
@@ -517,8 +517,21 @@
     <rPh sb="5" eb="7">
       <t>ニッポウ</t>
     </rPh>
-    <rPh sb="7" eb="10">
-      <t>ミトウロク</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタンが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,35 +550,6 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新ボタンが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示（日報登録済）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニッポウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -575,44 +559,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録ボタンをクリック（日報未登録）</t>
+    <t>登録ボタンをクリック（日報登録済）</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>ニッポウ</t>
     </rPh>
-    <rPh sb="13" eb="16">
-      <t>ミトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録ボタンをクリック（日報登録済）</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニッポウ</t>
-    </rPh>
     <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
     <rPh sb="15" eb="16">
       <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数行で登録を行う（日報未登録）</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -696,16 +654,1026 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何もなしで登録する（日報未登録）</t>
+    <t>・登録しましたのMSGが表示
+・ボタンは登録ボタンのまま</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに入力しているものを削除し、何もなしで登録する</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もなしで登録する（日報初回登録）</t>
     <rPh sb="0" eb="1">
       <t>ナニ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンをクリック（日報初回登録）</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数行で登録を行う（日報初回登録）</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（日報初回登録）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・更新しましたのMSGが表示
+・ボタンは更新ボタンから登録ボタンに変わる</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,024文字以上で登録する</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（初期状態）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当月が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当月から遡って過去1年分が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サカノボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネンブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の年月を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した年月の勤怠一覧が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインをしている社員名が表示される</t>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOME画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠合計</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アコーディオンメニューは折畳んだ状態で表示される
+・ボタンは「+」で表示される</t>
+    <rPh sb="13" eb="15">
+      <t>オリタタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アコーディオンメニューが展開される
+・ボタンは「×」で表示される</t>
+    <rPh sb="13" eb="15">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面入力（直接年月を数字で入力）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーボタンから年月日を選択する</t>
+    <rPh sb="10" eb="12">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック（正常入力）</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック（開始日のみ入力）</t>
+    <rPh sb="11" eb="14">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック（終了日のみ入力）</t>
+    <rPh sb="11" eb="14">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック（開始日と終了日ともに未入力）</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫眼鏡ボタンクリック（終了日を開始日より前の日付を入力）</t>
+    <rPh sb="0" eb="3">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日には、開始日より後の日付を指定してくださいとバリデーションエラーが表示される</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧合計</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当月の出勤日数、総勤務時間、残業時間が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当月の日と曜日が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DBに登録の勤怠情報が表示される
+・登録がない場合は空欄で表示される</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（日報部分）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前半20文字前後が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンハン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報表示のモーダルが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧を開いたときは表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（虫眼鏡ボタンクリック後）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（タイトル部分）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した月日+日報と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（日報登録あり）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録の日報が全文表示される</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示（日報登録なし）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も表示されない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルが閉じる</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じるボタンクリック</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル外をクリック</t>
+    <rPh sb="4" eb="5">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報部分に文字入力を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カーソルは表示されない
+・readonlyのため文字入力ができない</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報の文章をドラック</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青反転する</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾀﾌﾞﾚｯﾄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｽﾏﾎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した年月日が画面に反映する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「YYYY/MM/DD」の表記に従って画面に反映する</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠合計を表示する画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠合計画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索を行っている社員名が表示</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日の選択を促す表示がされる</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日の選択を促す表示がされる</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日と終了日の選択を促す表示がされる</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した期間で検索が行われる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索した期間内の出勤日数、総勤務時間、残業時間が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ前の画面に戻る</t>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1098,25 +2066,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1FE6F-FDB4-4A4A-BFE1-D826FD76EEF2}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,19 +2110,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1171,11 +2148,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -1188,11 +2168,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -1205,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1222,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1239,12 +2222,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1264,12 +2247,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1289,7 +2272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1306,7 +2289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1323,7 +2306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1340,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1357,7 +2340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1374,12 +2357,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>12</v>
+      </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -1396,26 +2382,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>13</v>
+      </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
       <c r="H18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>53</v>
@@ -1424,26 +2416,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>15</v>
+      </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>16</v>
+      </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
@@ -1452,57 +2450,841 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>17</v>
+      </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>19</v>
+      </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1519,19 +3301,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +3348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +3368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +3382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +3396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +3410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1642,12 +3424,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>29</v>
       </c>
